--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,159 +46,171 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>broken</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>back</t>
+    <t>work</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -208,39 +220,36 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -250,31 +259,40 @@
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>playing</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4">
         <v>0.875</v>
@@ -804,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.8148148148148148</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7105263157894737</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>0.6792452830188679</v>
@@ -1004,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6827956989247311</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>0.5796269727403156</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L9">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>293</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.5566714490674318</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6601941747572816</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K11">
         <v>0.5311203319502075</v>
@@ -1154,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.4836065573770492</v>
+        <v>0.4901639344262295</v>
       </c>
       <c r="L12">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="M12">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.6553398058252428</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.4150943396226415</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.3915662650602409</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5294117647058824</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>0.382262996941896</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>202</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.518840579710145</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>0.35</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K17">
-        <v>0.3227513227513227</v>
+        <v>0.265625</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,31 +1490,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>0.2421875</v>
+        <v>0.2137096774193548</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K19">
-        <v>0.2377622377622378</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,37 +1572,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4259259259259259</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>31</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K20">
-        <v>0.2063492063492063</v>
+        <v>0.2</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1604,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.421875</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K21">
-        <v>0.2048192771084337</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>198</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4105263157894737</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K22">
-        <v>0.2043010752688172</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4096385542168675</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K23">
-        <v>0.1675438596491228</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="L23">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M23">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N23">
         <v>0.99</v>
@@ -1746,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4094488188976378</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,31 +1790,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>0.1027976577748861</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L24">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1379</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -1822,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>0.09192200557103064</v>
+        <v>0.1042780748663102</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3828125</v>
+        <v>0.40625</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K26">
-        <v>0.07754010695187166</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>345</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3744075829383886</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,31 +1940,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K27">
-        <v>0.05607476635514019</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>707</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1972,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.297029702970297</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,7 +1990,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>142</v>
+        <v>38</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28">
+        <v>0.06141522029372497</v>
+      </c>
+      <c r="L28">
+        <v>46</v>
+      </c>
+      <c r="M28">
+        <v>49</v>
+      </c>
+      <c r="N28">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2857142857142857</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1998,7 +2040,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29">
+        <v>0.04435483870967742</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <v>0.85</v>
+      </c>
+      <c r="O29">
+        <v>0.15</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2006,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2808988764044944</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2024,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2032,13 +2098,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2422680412371134</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2050,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2058,13 +2124,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2076,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2084,13 +2150,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2120253164556962</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C33">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2102,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>249</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2110,13 +2176,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2071428571428572</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2128,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2136,13 +2202,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1920289855072464</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C35">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2154,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>223</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2162,25 +2228,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1887072808320951</v>
+        <v>0.2</v>
       </c>
       <c r="C36">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>546</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2188,13 +2254,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.18</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2206,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>164</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2214,13 +2280,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.178343949044586</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2232,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>129</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2240,25 +2306,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.175792507204611</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>286</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2266,13 +2332,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1635514018691589</v>
+        <v>0.195</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2284,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2292,25 +2358,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1550632911392405</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="D41">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>267</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2318,25 +2384,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1542857142857143</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>148</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2344,25 +2410,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1382113821138211</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>212</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2370,25 +2436,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1277533039647577</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>396</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2396,25 +2462,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.125</v>
+        <v>0.1611479028697572</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>168</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2422,13 +2488,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1235955056179775</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2440,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>234</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2448,13 +2514,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1178082191780822</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2466,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>322</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2474,25 +2540,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.09641255605381166</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>403</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2500,13 +2566,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09014084507042254</v>
+        <v>0.125</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2518,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>323</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2526,25 +2592,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07911392405063292</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>291</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2552,13 +2618,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.07857142857142857</v>
+        <v>0.1042253521126761</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2570,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>258</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2578,25 +2644,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.07755775577557755</v>
+        <v>0.1016483516483516</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F52">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>559</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2604,25 +2670,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.05491698595146871</v>
+        <v>0.08544303797468354</v>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F53">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>740</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2630,25 +2696,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05164319248826291</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E54">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="F54">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2656,25 +2722,129 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.04622496147919877</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>619</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.07755775577557755</v>
+      </c>
+      <c r="C56">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <v>0.04</v>
+      </c>
+      <c r="F56">
+        <v>0.96</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.06769230769230769</v>
+      </c>
+      <c r="C57">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>49</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
+      <c r="F57">
+        <v>0.9</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.05647058823529412</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>0.27</v>
+      </c>
+      <c r="F58">
+        <v>0.73</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.05384615384615385</v>
+      </c>
+      <c r="C59">
+        <v>42</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <v>0.25</v>
+      </c>
+      <c r="F59">
+        <v>0.75</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
